--- a/Masterarbeit/auftraege.xlsx
+++ b/Masterarbeit/auftraege.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\Git\Masterarbeit\Masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2231239C-A99F-4D3E-B134-58DE9C355B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F8C954-376E-4C0D-8881-3726B9DFAA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{40D13F5B-32A4-4008-A91C-8D150EB246FF}"/>
+    <workbookView xWindow="5040" yWindow="1188" windowWidth="17472" windowHeight="12120" xr2:uid="{40D13F5B-32A4-4008-A91C-8D150EB246FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>AuftragsNr (Optional)</t>
   </si>
@@ -115,20 +114,6 @@
     <tableColumn id="3" xr3:uid="{B4D7DF78-00B8-4143-85E3-0ECD8D5DDE20}" name="Anteil_Typ1"/>
     <tableColumn id="4" xr3:uid="{A5C3FAE1-32A0-49B6-860F-8873B3B49E64}" name="Anteil_Typ2"/>
     <tableColumn id="5" xr3:uid="{BF7B54B5-F5B6-4CE5-A58E-57E9C3745A30}" name="Anteil_Typ3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFAFF1C3-E9E8-4B24-80A0-4D528F2261F1}" name="Tabelle13" displayName="Tabelle13" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{FFAFF1C3-E9E8-4B24-80A0-4D528F2261F1}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7A1D8DF4-EEA3-4CC8-8ED3-C8F864918E05}" name="AuftragsNr (Optional)"/>
-    <tableColumn id="2" xr3:uid="{A8116A0B-0E79-4795-B2AF-61EACEDEF3E0}" name="Anteil_Typ0"/>
-    <tableColumn id="3" xr3:uid="{0EDC30C7-8F1B-445E-8BC3-55FE88F96986}" name="Anteil_Typ1"/>
-    <tableColumn id="4" xr3:uid="{C76C756B-A6EB-4EC8-AE38-C908561C6A96}" name="Anteil_Typ2"/>
-    <tableColumn id="5" xr3:uid="{08F13239-7C37-474E-89A9-9CC0052283C5}" name="Anteil_Typ3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -454,7 +439,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,16 +466,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -576,143 +561,6 @@
       </c>
       <c r="E7">
         <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB12DB83-42C7-445D-A83C-845CF51B84E6}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
